--- a/opdracht/docs/Timesheet.xlsx
+++ b/opdracht/docs/Timesheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Glenn Merckx" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Logboek</t>
   </si>
@@ -39,21 +39,12 @@
     <t>Activiteit</t>
   </si>
   <si>
-    <t>domein</t>
-  </si>
-  <si>
     <t>Tijdsbesteding</t>
   </si>
   <si>
-    <t>Teamlid</t>
-  </si>
-  <si>
     <t>Brainstorm met een aantal vrienden</t>
   </si>
   <si>
-    <t>Glenn Merckx</t>
-  </si>
-  <si>
     <t>ontwerp academische poster</t>
   </si>
   <si>
@@ -87,9 +78,6 @@
     <t>beginnen schrijven aan website</t>
   </si>
   <si>
-    <t>aanmaken css</t>
-  </si>
-  <si>
     <t xml:space="preserve">poging tot API </t>
   </si>
   <si>
@@ -148,6 +136,54 @@
   </si>
   <si>
     <t>timetables toegevoegd en aangepast</t>
+  </si>
+  <si>
+    <t>Nadenken over onderwerp</t>
+  </si>
+  <si>
+    <t>aanmaken van persona's, ideeenbord en wireframes.</t>
+  </si>
+  <si>
+    <t>html en css structuur</t>
+  </si>
+  <si>
+    <t>opstellen json quotes</t>
+  </si>
+  <si>
+    <t>opzoeken foto's en toevoegen aan json</t>
+  </si>
+  <si>
+    <t>opstellen json bioscopen</t>
+  </si>
+  <si>
+    <t>productiedossier aanpassen</t>
+  </si>
+  <si>
+    <t>wireframes aanmaken en aanpassen</t>
+  </si>
+  <si>
+    <t>screendesigns aanpassen en bijwerken</t>
+  </si>
+  <si>
+    <t>styletiles aanmaken</t>
+  </si>
+  <si>
+    <t>reveal.js opstellen en aanmaken</t>
+  </si>
+  <si>
+    <t>uurplanning maken bioscopen</t>
+  </si>
+  <si>
+    <t>verder werken uurplanning bioscoop</t>
+  </si>
+  <si>
+    <t>opstellen json uurregeling</t>
+  </si>
+  <si>
+    <t>productiedossier aanmaken</t>
+  </si>
+  <si>
+    <t>aanpassen css</t>
   </si>
 </sst>
 </file>
@@ -181,7 +217,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -248,11 +284,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -266,6 +317,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
@@ -543,607 +596,487 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y45"/>
+  <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="55" customWidth="1"/>
-    <col min="3" max="4" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>42661</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>42663</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
         <v>2.5</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>42664</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
         <v>3.75</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>42665</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4">
         <v>1.5</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>42665</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
         <v>1.5</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>42668</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4">
         <v>1.25</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>42669</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4">
         <v>4.25</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="3"/>
-    </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="3"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>42670</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4">
         <v>0.5</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>42680</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4">
         <v>3</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>42684</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4">
         <v>2</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>42686</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4">
         <v>3</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>42690</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4">
         <v>6</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>42691</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4">
+        <v>51</v>
+      </c>
+      <c r="C16" s="4">
         <v>2</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>42694</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4">
         <v>4</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>42707</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4">
+        <v>26</v>
+      </c>
+      <c r="C18" s="4">
         <v>5.75</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>42708</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4">
         <v>2</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>42708</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5">
+        <v>18</v>
+      </c>
+      <c r="C20" s="5">
         <v>2</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>42709</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5">
         <v>3.25</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>42710</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5">
+        <v>20</v>
+      </c>
+      <c r="C22" s="5">
         <v>4</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>42710</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5">
+        <v>27</v>
+      </c>
+      <c r="C23" s="5">
         <v>2.75</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>42711</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5">
+        <v>25</v>
+      </c>
+      <c r="C24" s="5">
         <v>5</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>42712</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5">
+        <v>24</v>
+      </c>
+      <c r="C25" s="5">
         <v>3</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>42713</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5">
+        <v>23</v>
+      </c>
+      <c r="C26" s="5">
         <v>3</v>
       </c>
-      <c r="E26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>42717</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5">
+        <v>35</v>
+      </c>
+      <c r="C27" s="5">
         <v>3</v>
       </c>
-      <c r="E27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>42717</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5">
+        <v>34</v>
+      </c>
+      <c r="C28" s="5">
         <v>2</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>42717</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5">
+        <v>33</v>
+      </c>
+      <c r="C29" s="5">
         <v>2</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>42718</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5">
+        <v>22</v>
+      </c>
+      <c r="C30" s="5">
         <v>2</v>
       </c>
-      <c r="E30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>42719</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5">
+        <v>31</v>
+      </c>
+      <c r="C31" s="5">
         <v>2</v>
       </c>
-      <c r="E31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>42720</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5">
+        <v>21</v>
+      </c>
+      <c r="C32" s="5">
         <v>5</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <v>42721</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="4">
+        <v>32</v>
+      </c>
+      <c r="C33" s="4">
         <v>4</v>
       </c>
-      <c r="E33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>42724</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5">
+        <v>28</v>
+      </c>
+      <c r="C34" s="5">
         <v>3</v>
       </c>
-      <c r="E34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>42725</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5">
+        <v>29</v>
+      </c>
+      <c r="C35" s="5">
         <v>2</v>
       </c>
-      <c r="E35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <v>42725</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5">
+        <v>30</v>
+      </c>
+      <c r="C36" s="5">
         <v>2</v>
       </c>
-      <c r="E36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="5"/>
-      <c r="D39" s="5">
-        <f>SUM(D4:D36)</f>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="5">
+        <f>SUM(C4:C36)</f>
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1155,12 +1088,391 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>42659</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>42666</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>42666</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>42689</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>42708</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>42708</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>42714</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>42718</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>42719</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>42720</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="4">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>42723</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>42724</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>42725</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="4">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>42726</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>42726</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="5">
+        <f>SUM(C4:C18)</f>
+        <v>51.25</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E22" s="6"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="5"/>
+      <c r="E24" s="6"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="5"/>
+      <c r="E25" s="6"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
+      <c r="C27" s="5"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="6"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="6"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="6"/>
+      <c r="C30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="6"/>
+      <c r="C31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="6"/>
+      <c r="C32" s="5"/>
+      <c r="E32" s="6"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
+      <c r="C33" s="4"/>
+      <c r="E33" s="6"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="6"/>
+      <c r="C34" s="5"/>
+      <c r="E34" s="6"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C39" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>